--- a/outputAM.xlsx
+++ b/outputAM.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donato\Desktop\università\tesi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donato\Documents\NetBeansProjects\Ospedale\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="10" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="10" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="urg4b" sheetId="23" r:id="rId1"/>
@@ -4824,8 +4824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
@@ -5083,8 +5083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
